--- a/src/test/resources/surgeries.xlsx
+++ b/src/test/resources/surgeries.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="41">
   <si>
     <t>Dr. Shalini Shetty
 Ophthalmologist
@@ -148,6 +148,118 @@
 Indiranagar,Bangalore  SightYears Eye Clinic
 ₹750 Consultation fee at clinic
 99% 479 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mukta Shrivastava
+Ophthalmologist
+23 years experience overall
+Millers Road,Bangalore  Manipal Hospital, Millers Road + 2 more
+₹1000 Consultation fee at clinic
+100% 12 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. NITIN S SHETTY
+Ophthalmologist
+24 years experience overall
+Old Airport Road,Bangalore  Manipal Hospitals Old Airport Road + 1 more
+₹900 Consultation fee at clinic
+97% 31 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mary Varghese
+Ophthalmologist
+38 years experience overall
+Koramangala 5 Block,Bangalore  Apollo Spectra Hospitals
+₹750 Consultation fee at clinic
+100% 14 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Harish Nayak
+Ophthalmologist
+33 years experience overall
+Old Airport Road,Bangalore  Manipal Hospitals Old Airport Road + 3 more
+₹900 Consultation fee at clinic
+99% 102 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Bharath Kumar
+Ophthalmologist
+25 years experience overall
+VV Puram,Bangalore  Divya Jyoti Nethralaya
+₹600 Consultation fee at clinic
+94% 40 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Prashant Singh
+Ophthalmologist
+25 years experience overall
+Kammana Halli,Bangalore  New Vision Care + 1 more
+₹200 Consultation fee at clinic
+99% 64 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rahul Jain
+Ophthalmologist
+18 years experience overall
+BTM Layout,Bangalore  Dr. Jain's Eye Clinic
+₹800 Consultation fee at clinic
+99% 930 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sanghamitra Burman
+Ophthalmologist
+25 years experience overall
+Indiranagar,Bangalore  SightYears Eye Clinic
+₹800 Consultation fee at clinic
+99% 480 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mahabaleswar
+Ophthalmologist
+46 years experience overall
+Koramangala 5 Block,Bangalore  Apollo Medical Centre
+₹700 Consultation fee at clinic
+80% 1 Patient Story</t>
+  </si>
+  <si>
+    <t>Dr. Ajanta Chakravarty
+Ophthalmologist
+38 years experience overall
+Whitefield,Bangalore  Manipal Hospital Varthur Road
+₹900 Consultation fee at clinic
+90% 5 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. M B Trishala
+Ophthalmologist
+34 years experience overall
+Jayanagar 9 Block,Bangalore  Manipal Hospital + 1 more
+₹650 Consultation fee at clinic
+100% 6 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Ram.S. Mirlay
+Ophthalmologist
+34 years experience overall
+Shivaji Nagar,Bangalore  Mirlay Eye Care, A Unit Of Dr. Agarwal's Eye Hospital Ltd + 1 more
+₹700 Consultation fee at clinic
+98% 5 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Srinivas Rao. V. K
+Ophthalmologist
+27 years experience overall
+Bellandur,Bangalore  The Eye Foundation Super Specialty Eye Hospital
+₹500 Consultation fee at clinic
+87% 23 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sanghamitra Burman
+Ophthalmologist
+25 years experience overall
+Indiranagar,Bangalore  SightYears Eye Clinic
+₹800 Consultation fee at clinic
+99% 483 Patient Stories</t>
   </si>
 </sst>
 </file>
@@ -194,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="1035">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -751,6 +863,2291 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -1149,37 +3546,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="43.25390625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="53.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="178">
+      <c r="A1" t="s" s="1008">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="179">
+      <c r="A2" t="s" s="1009">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="180">
-        <v>26</v>
+      <c r="A3" t="s" s="1010">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="181">
+      <c r="A4" t="s" s="1011">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="1012">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="182">
-        <v>2</v>
-      </c>
-    </row>
     <row r="6" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="183">
-        <v>3</v>
+      <c r="A6" t="s" s="1013">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1199,102 +3596,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="206">
+      <c r="A1" t="s" s="1015">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="207">
+      <c r="A2" t="s" s="1016">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="208">
+      <c r="A3" t="s" s="1017">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="209">
+      <c r="A4" t="s" s="1018">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="210">
+      <c r="A5" t="s" s="1019">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="211">
+      <c r="A6" t="s" s="1020">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="212">
+      <c r="A7" t="s" s="1021">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="213">
+      <c r="A8" t="s" s="1022">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="214">
+      <c r="A9" t="s" s="1023">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="215">
+      <c r="A10" t="s" s="1024">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="216">
+      <c r="A11" t="s" s="1025">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="217">
+      <c r="A12" t="s" s="1026">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="218">
+      <c r="A13" t="s" s="1027">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="219">
+      <c r="A14" t="s" s="1028">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="220">
+      <c r="A15" t="s" s="1029">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="221">
+      <c r="A16" t="s" s="1030">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="222">
+      <c r="A17" t="s" s="1031">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="223">
+      <c r="A18" t="s" s="1032">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="224">
+      <c r="A19" t="s" s="1033">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="225">
+      <c r="A20" t="s" s="1034">
         <v>23</v>
       </c>
     </row>
